--- a/hypersim9buses/Trafos_9bus_IEEE_hypersim.xlsx
+++ b/hypersim9buses/Trafos_9bus_IEEE_hypersim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original2\datagen\hypersim9buses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F2D8E-B9C5-4790-8B4D-C0ED3BCD2DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E49A7-C647-4020-82C8-BB3278604D8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{26299876-FFE2-4966-8090-A4840FFA9FD8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="9060" xr2:uid="{26299876-FFE2-4966-8090-A4840FFA9FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -453,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE15762-242D-4140-B913-B1A821B4EA3B}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -608,8 +608,9 @@
         <f>I2/P2</f>
         <v>2.8800000000004228E-2</v>
       </c>
+      <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -649,7 +650,7 @@
         <v>376.99111843077515</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M4" si="1">D3^2/100000000</f>
+        <f t="shared" ref="M3" si="1">D3^2/100000000</f>
         <v>3.24</v>
       </c>
       <c r="N3">
@@ -681,7 +682,7 @@
         <v>4999.999999998633</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U4" si="9">H3/O3</f>
+        <f t="shared" ref="U3" si="9">H3/O3</f>
         <v>9.9999999999999991E-11</v>
       </c>
       <c r="V3" s="1">
@@ -689,7 +690,7 @@
         <v>3.1250000000001249E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -768,10 +769,10 @@
         <v>2.9300000000006529E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T6" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
       <c r="H9" s="1"/>
       <c r="Q9" s="1"/>
